--- a/Datasources/Wires.xlsx
+++ b/Datasources/Wires.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Inductor Design\Datasources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C5000E-1A8F-4B63-A399-0F32E6B1F903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47042861-0825-4179-BD33-D26E5C539F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BB6EF32-6047-4CBB-A83F-F4A6A23D553A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4BB6EF32-6047-4CBB-A83F-F4A6A23D553A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,10 +120,29 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE3D3767-259A-42C2-9C0F-A45257BA2769}" name="Table1" displayName="Table1" ref="A1:G1048575" totalsRowShown="0">
+  <autoFilter ref="A1:G1048575" xr:uid="{BE3D3767-259A-42C2-9C0F-A45257BA2769}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1048575">
+    <sortCondition ref="C1:C1048575"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C70D3467-FA8E-4901-B60A-2DA7BD6B22C2}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{AE954433-D445-4615-945C-49059CB63C21}" name="Strands"/>
+    <tableColumn id="3" xr3:uid="{BC550C86-57F7-4983-85EF-F59FEFA7B0B0}" name="AWG"/>
+    <tableColumn id="4" xr3:uid="{8867997C-A0B2-4809-8370-713DC36B4699}" name="S_Cu"/>
+    <tableColumn id="5" xr3:uid="{BD20723F-E294-4D6F-80D1-84FD1B70628B}" name="S_Total"/>
+    <tableColumn id="6" xr3:uid="{6F4299E6-0DB4-4A88-B102-2345233CDA0E}" name="Ohm_m"/>
+    <tableColumn id="7" xr3:uid="{FC7272AF-661A-45EE-B6D8-40BA9EE51F8A}" name="Custom"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -266,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -408,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,22 +436,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F767DF1-5E83-4FC3-B5A6-8655037DF642}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -454,655 +475,1402 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A11" si="0">CONCATENATE(B2,"x AWG ",C2)</f>
+        <f>CONCATENATE(B2,"x AWG ",C2)</f>
+        <v>1x AWG 10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.2619999999999998E-6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.8571999999999996E-6</v>
+      </c>
+      <c r="F2">
+        <v>3.2763919999999999E-3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f>CONCATENATE(B3,"x AWG ",C3)</f>
+        <v>1x AWG 11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.1729000000000003E-6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.6738E-6</v>
+      </c>
+      <c r="F3">
+        <v>4.1327999999999998E-3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f>CONCATENATE(B4,"x AWG ",C4)</f>
+        <v>1x AWG 12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.3092E-6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.7309000000000001E-6</v>
+      </c>
+      <c r="F4">
+        <v>5.2086399999999996E-3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f>CONCATENATE(B5,"x AWG ",C5)</f>
+        <v>1x AWG 13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.6243E-6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.9793E-6</v>
+      </c>
+      <c r="F5">
+        <v>6.5698400000000004E-3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f>CONCATENATE(B6,"x AWG ",C6)</f>
+        <v>1x AWG 14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.0810999999999999E-6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.3800000000000001E-6</v>
+      </c>
+      <c r="F6">
+        <v>8.2819999999999994E-3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f>CONCATENATE(B7,"x AWG ",C7)</f>
+        <v>1x AWG 15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.6503999999999999E-6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.9021E-6</v>
+      </c>
+      <c r="F7">
+        <v>1.044352E-2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>CONCATENATE(B8,"x AWG ",C8)</f>
+        <v>1x AWG 16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.3088000000000001E-6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.5206999999999999E-6</v>
+      </c>
+      <c r="F8">
+        <v>1.317248E-2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>CONCATENATE(B9,"x AWG ",C9)</f>
+        <v>1x AWG 17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.0379E-6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.2163999999999999E-6</v>
+      </c>
+      <c r="F9">
+        <v>1.660992E-2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f>CONCATENATE(B10,"x AWG ",C10)</f>
+        <v>1x AWG 18</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8.2310000000000001E-7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.7350000000000008E-7</v>
+      </c>
+      <c r="F10">
+        <v>2.0942800000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>CONCATENATE(B11,"x AWG ",C11)</f>
+        <v>1x AWG 19</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.5270000000000001E-7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7.794E-7</v>
+      </c>
+      <c r="F11">
+        <v>2.6407280000000002E-2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>CONCATENATE(B12,"x AWG ",C12)</f>
+        <v>1x AWG 20</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5.1760000000000003E-7</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6.2440000000000001E-7</v>
+      </c>
+      <c r="F12">
+        <v>3.3292000000000002E-2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>CONCATENATE(B13,"x AWG ",C13)</f>
+        <v>1x AWG 21</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4.1049999999999998E-7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5.0040000000000001E-7</v>
+      </c>
+      <c r="F13">
+        <v>4.1984E-2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f>CONCATENATE(B14,"x AWG ",C14)</f>
+        <v>1x AWG 22</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.255E-7</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.0129999999999997E-7</v>
+      </c>
+      <c r="F14">
+        <v>5.2939199999999999E-2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>CONCATENATE(B15,"x AWG ",C15)</f>
+        <v>1x AWG 23</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.5820000000000002E-7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.2210000000000001E-7</v>
+      </c>
+      <c r="F15">
+        <v>6.6780800000000001E-2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>CONCATENATE(B16,"x AWG ",C16)</f>
+        <v>1x AWG 24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.047E-7</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.586E-7</v>
+      </c>
+      <c r="F16">
+        <v>8.4197599999999997E-2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>CONCATENATE(B17,"x AWG ",C17)</f>
+        <v>1x AWG 25</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.624E-7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.0779999999999999E-7</v>
+      </c>
+      <c r="F17">
+        <v>0.10617360000000001</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>CONCATENATE(B18,"x AWG ",C18)</f>
+        <v>1x AWG 26</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.2870000000000001E-7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.6710000000000001E-7</v>
+      </c>
+      <c r="F18">
+        <v>0.1338568</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>CONCATENATE(B19,"x AWG ",C19)</f>
+        <v>1x AWG 27</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.0209999999999999E-7</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.3440000000000001E-7</v>
+      </c>
+      <c r="F19">
+        <v>0.16882159999999999</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>CONCATENATE(B20,"x AWG ",C20)</f>
+        <v>1x AWG 28</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8.0999999999999997E-8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.083E-7</v>
+      </c>
+      <c r="F20">
+        <v>0.21287200000000001</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>CONCATENATE(B21,"x AWG ",C21)</f>
+        <v>1x AWG 29</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6.4200000000000006E-8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8.72E-8</v>
+      </c>
+      <c r="F21">
+        <v>0.26840239999999999</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f>CONCATENATE(B22,"x AWG ",C22)</f>
+        <v>1x AWG 30</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.0899999999999999E-8</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7.0399999999999995E-8</v>
+      </c>
+      <c r="F22">
+        <v>0.33849600000000002</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>CONCATENATE(B23,"x AWG ",C23)</f>
+        <v>1x AWG 31</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4.0399999999999998E-8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5.6799999999999999E-8</v>
+      </c>
+      <c r="F23">
+        <v>0.426728</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>CONCATENATE(B24,"x AWG ",C24)</f>
+        <v>1x AWG 32</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3.2000000000000002E-8</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.5900000000000001E-8</v>
+      </c>
+      <c r="F24">
+        <v>0.53824799999999995</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>CONCATENATE(B25,"x AWG ",C25)</f>
+        <v>1x AWG 33</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.5399999999999999E-8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.7100000000000001E-8</v>
+      </c>
+      <c r="F25">
+        <v>0.67863200000000001</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>CONCATENATE(B26,"x AWG ",C26)</f>
+        <v>1x AWG 34</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.0100000000000001E-8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.9999999999999997E-8</v>
+      </c>
+      <c r="F26">
+        <v>0.85575199999999996</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f>CONCATENATE(B27,"x AWG ",C27)</f>
         <v>3x AWG 34</v>
       </c>
-      <c r="B2">
+      <c r="B27">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C27">
         <v>34</v>
       </c>
-      <c r="D2">
+      <c r="D27">
         <v>6.0333659524529993E-8</v>
       </c>
-      <c r="E2">
+      <c r="E27">
         <v>9.9314665903109535E-8</v>
       </c>
-      <c r="F2">
+      <c r="F27">
         <v>0.28576115529000001</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f t="shared" si="0"/>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f>CONCATENATE(B28,"x AWG ",C28)</f>
         <v>4x AWG 34</v>
       </c>
-      <c r="B3">
+      <c r="B28">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C28">
         <v>34</v>
       </c>
-      <c r="D3">
+      <c r="D28">
         <v>8.0444879366039995E-8</v>
       </c>
-      <c r="E3">
+      <c r="E28">
         <v>1.2971711464895944E-7</v>
       </c>
-      <c r="F3">
+      <c r="F28">
         <v>0.21433727066700001</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f>CONCATENATE(B29,"x AWG ",C29)</f>
         <v>5x AWG 34</v>
       </c>
-      <c r="B4">
+      <c r="B29">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C29">
         <v>34</v>
       </c>
-      <c r="D4">
+      <c r="D29">
         <v>1.0055609920755E-7</v>
       </c>
-      <c r="E4">
+      <c r="E29">
         <v>1.6417322322758922E-7</v>
       </c>
-      <c r="F4">
+      <c r="F29">
         <v>0.171456693174</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f>CONCATENATE(B30,"x AWG ",C30)</f>
         <v>6x AWG 34</v>
       </c>
-      <c r="B5">
+      <c r="B30">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C30">
         <v>34</v>
       </c>
-      <c r="D5">
+      <c r="D30">
         <v>1.2066731904905999E-7</v>
       </c>
-      <c r="E5">
+      <c r="E30">
         <v>2.0268299163899907E-7</v>
       </c>
-      <c r="F5">
+      <c r="F30">
         <v>0.14288057764500001</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f>CONCATENATE(B31,"x AWG ",C31)</f>
         <v>7x AWG 34</v>
       </c>
-      <c r="B6">
+      <c r="B31">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C31">
         <v>34</v>
       </c>
-      <c r="D6">
+      <c r="D31">
         <v>1.4077853889057E-7</v>
       </c>
-      <c r="E6">
+      <c r="E31">
         <v>2.2345799828199655E-7</v>
       </c>
-      <c r="F6">
+      <c r="F31">
         <v>0.122473753467</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f>CONCATENATE(B32,"x AWG ",C32)</f>
         <v>8x AWG 34</v>
       </c>
-      <c r="B7">
+      <c r="B32">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C32">
         <v>34</v>
       </c>
-      <c r="D7">
+      <c r="D32">
         <v>1.6088975873207999E-7</v>
       </c>
-      <c r="E7">
+      <c r="E32">
         <v>2.680482564425763E-7</v>
       </c>
-      <c r="F7">
+      <c r="F32">
         <v>0.10715223113399999</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f>CONCATENATE(B33,"x AWG ",C33)</f>
         <v>9x AWG 34</v>
       </c>
-      <c r="B8">
+      <c r="B33">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C33">
         <v>34</v>
       </c>
-      <c r="D8">
+      <c r="D33">
         <v>1.8100097857358998E-7</v>
       </c>
-      <c r="E8">
+      <c r="E33">
         <v>2.9186350796015868E-7</v>
       </c>
-      <c r="F8">
+      <c r="F33">
         <v>9.5242782297000006E-2</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f>CONCATENATE(B34,"x AWG ",C34)</f>
         <v>10x AWG 34</v>
       </c>
-      <c r="B9">
+      <c r="B34">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C34">
         <v>34</v>
       </c>
-      <c r="D9">
+      <c r="D34">
         <v>2.011121984151E-7</v>
       </c>
-      <c r="E9">
+      <c r="E34">
         <v>3.4253425586990836E-7</v>
       </c>
-      <c r="F9">
+      <c r="F34">
         <v>8.5728346587000001E-2</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f>CONCATENATE(B35,"x AWG ",C35)</f>
         <v>15x AWG 34</v>
       </c>
-      <c r="B10">
+      <c r="B35">
         <v>15</v>
       </c>
-      <c r="C10">
+      <c r="C35">
         <v>34</v>
       </c>
-      <c r="D10">
+      <c r="D35">
         <v>3.0166829762264999E-7</v>
       </c>
-      <c r="E10">
+      <c r="E35">
         <v>4.8694588741269527E-7</v>
       </c>
-      <c r="F10">
+      <c r="F35">
         <v>5.7152231058000005E-2</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f>CONCATENATE(B36,"x AWG ",C36)</f>
         <v>20x AWG 34</v>
       </c>
-      <c r="B11">
+      <c r="B36">
         <v>20</v>
       </c>
-      <c r="C11">
+      <c r="C36">
         <v>34</v>
       </c>
-      <c r="D11">
+      <c r="D36">
         <v>4.0222439683019999E-7</v>
       </c>
-      <c r="E11">
+      <c r="E36">
         <v>6.5669289291035686E-7</v>
       </c>
-      <c r="F11">
+      <c r="F36">
         <v>4.2880577493000005E-2</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f t="shared" ref="A12:A28" si="1">CONCATENATE(B12,"x AWG ",C12)</f>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f>CONCATENATE(B37,"x AWG ",C37)</f>
+        <v>1x AWG 35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.6000000000000001E-8</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2.4299999999999999E-8</v>
+      </c>
+      <c r="F37">
+        <v>1.0791200000000001</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f>CONCATENATE(B38,"x AWG ",C38)</f>
+        <v>1x AWG 36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.27E-8</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.9700000000000001E-8</v>
+      </c>
+      <c r="F38">
+        <v>1.36</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f>CONCATENATE(B39,"x AWG ",C39)</f>
+        <v>1x AWG 37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1E-8</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.6000000000000001E-8</v>
+      </c>
+      <c r="F39">
+        <v>1.7188760000000001</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f>CONCATENATE(B40,"x AWG ",C40)</f>
         <v>1x AWG 38</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>38</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D40" s="2">
         <v>8.0000000000000005E-9</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E40" s="2">
         <v>1.3000000000000001E-8</v>
       </c>
-      <c r="F12" s="1">
-        <v>2.1499999999999995</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="F40">
+        <v>2.1658279999999999</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="str">
+        <f>CONCATENATE(B41,"x AWG ",C41)</f>
         <v>2x AWG 38</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B41" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C41" s="1">
         <v>38</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D41" s="1">
         <v>1.6000000000000001E-8</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E41" s="1">
         <v>2.6000000000000001E-8</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F41" s="1">
         <v>1.0749999999999997</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="1"/>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f>CONCATENATE(B42,"x AWG ",C42)</f>
         <v>3x AWG 38</v>
       </c>
-      <c r="B14">
+      <c r="B42">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C42">
         <v>38</v>
       </c>
-      <c r="D14">
+      <c r="D42">
         <v>2.4321958992E-8</v>
       </c>
-      <c r="E14">
+      <c r="E42">
         <v>4.1043305806897304E-8</v>
       </c>
-      <c r="F14">
+      <c r="F42">
         <v>0.70889107719300004</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f t="shared" si="1"/>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f>CONCATENATE(B43,"x AWG ",C43)</f>
         <v>4x AWG 38</v>
       </c>
-      <c r="B15">
+      <c r="B43">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C43">
         <v>38</v>
       </c>
-      <c r="D15">
+      <c r="D43">
         <v>3.2429278656E-8</v>
       </c>
-      <c r="E15">
+      <c r="E43">
         <v>5.0670747909749768E-8</v>
       </c>
-      <c r="F15">
+      <c r="F43">
         <v>0.531660105795</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" si="1"/>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f>CONCATENATE(B44,"x AWG ",C44)</f>
         <v>5x AWG 38</v>
       </c>
-      <c r="B16">
+      <c r="B44">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C44">
         <v>38</v>
       </c>
-      <c r="D16">
+      <c r="D44">
         <v>4.053659832E-8</v>
       </c>
-      <c r="E16">
+      <c r="E44">
         <v>7.296587699003967E-8</v>
       </c>
-      <c r="F16">
+      <c r="F44">
         <v>0.42532808463599997</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f t="shared" si="1"/>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f>CONCATENATE(B45,"x AWG ",C45)</f>
         <v>6x AWG 38</v>
       </c>
-      <c r="B17">
+      <c r="B45">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C45">
         <v>38</v>
       </c>
-      <c r="D17">
+      <c r="D45">
         <v>4.8643917984E-8</v>
       </c>
-      <c r="E17">
+      <c r="E45">
         <v>8.5633563967477089E-8</v>
       </c>
-      <c r="F17">
+      <c r="F45">
         <v>0.35442913439700002</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" si="1"/>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f>CONCATENATE(B46,"x AWG ",C46)</f>
         <v>7x AWG 38</v>
       </c>
-      <c r="B18">
+      <c r="B46">
         <v>7</v>
       </c>
-      <c r="C18">
+      <c r="C46">
         <v>38</v>
       </c>
-      <c r="D18">
+      <c r="D46">
         <v>5.6751237648E-8</v>
       </c>
-      <c r="E18">
+      <c r="E46">
         <v>9.9314665903109535E-8</v>
       </c>
-      <c r="F18">
+      <c r="F46">
         <v>0.30380577473999998</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" si="1"/>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f>CONCATENATE(B47,"x AWG ",C47)</f>
         <v>8x AWG 38</v>
       </c>
-      <c r="B19">
+      <c r="B47">
         <v>8</v>
       </c>
-      <c r="C19">
+      <c r="C47">
         <v>38</v>
       </c>
-      <c r="D19">
+      <c r="D47">
         <v>6.4858557312E-8</v>
       </c>
-      <c r="E19">
+      <c r="E47">
         <v>1.1400918279693698E-7</v>
       </c>
-      <c r="F19">
+      <c r="F47">
         <v>0.265846457097</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f t="shared" si="1"/>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f>CONCATENATE(B48,"x AWG ",C48)</f>
         <v>9x AWG 38</v>
       </c>
-      <c r="B20">
+      <c r="B48">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="C48">
         <v>38</v>
       </c>
-      <c r="D20">
+      <c r="D48">
         <v>7.2965876976000007E-8</v>
       </c>
-      <c r="E20">
+      <c r="E48">
         <v>1.2971711464895944E-7</v>
       </c>
-      <c r="F20">
+      <c r="F48">
         <v>0.23628608959799999</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" si="1"/>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f>CONCATENATE(B49,"x AWG ",C49)</f>
         <v>10x AWG 38</v>
       </c>
-      <c r="B21">
+      <c r="B49">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C49">
         <v>38</v>
       </c>
-      <c r="D21">
+      <c r="D49">
         <v>8.107319664E-8</v>
       </c>
-      <c r="E21">
+      <c r="E49">
         <v>1.2971711464895944E-7</v>
       </c>
-      <c r="F21">
+      <c r="F49">
         <v>0.21266404231799999</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f t="shared" si="1"/>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f>CONCATENATE(B50,"x AWG ",C50)</f>
         <v>15x AWG 38</v>
       </c>
-      <c r="B22">
+      <c r="B50">
         <v>15</v>
       </c>
-      <c r="C22">
+      <c r="C50">
         <v>38</v>
       </c>
-      <c r="D22">
+      <c r="D50">
         <v>1.2160979495999999E-7</v>
       </c>
-      <c r="E22">
+      <c r="E50">
         <v>2.0268299163899907E-7</v>
       </c>
-      <c r="F22">
+      <c r="F50">
         <v>0.14176509207900001</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" si="1"/>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f>CONCATENATE(B51,"x AWG ",C51)</f>
         <v>20x AWG 38</v>
       </c>
-      <c r="B23">
+      <c r="B51">
         <v>20</v>
       </c>
-      <c r="C23">
+      <c r="C51">
         <v>38</v>
       </c>
-      <c r="D23">
+      <c r="D51">
         <v>1.6214639328E-7</v>
       </c>
-      <c r="E23">
+      <c r="E51">
         <v>2.680482564425763E-7</v>
       </c>
-      <c r="F23">
+      <c r="F51">
         <v>0.10633202115899999</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="1"/>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f>CONCATENATE(B52,"x AWG ",C52)</f>
         <v>25x AWG 38</v>
       </c>
-      <c r="B24">
+      <c r="B52">
         <v>25</v>
       </c>
-      <c r="C24">
+      <c r="C52">
         <v>38</v>
       </c>
-      <c r="D24">
+      <c r="D52">
         <v>2.0268299160000001E-7</v>
       </c>
-      <c r="E24">
+      <c r="E52">
         <v>3.4253425586990836E-7</v>
       </c>
-      <c r="F24">
+      <c r="F52">
         <v>8.5072178607000004E-2</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="1"/>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f>CONCATENATE(B53,"x AWG ",C53)</f>
         <v>30x AWG 38</v>
       </c>
-      <c r="B25">
+      <c r="B53">
         <v>30</v>
       </c>
-      <c r="C25">
+      <c r="C53">
         <v>38</v>
       </c>
-      <c r="D25">
+      <c r="D53">
         <v>2.4321958991999999E-7</v>
       </c>
-      <c r="E25">
+      <c r="E53">
         <v>4.2614098992099556E-7</v>
       </c>
-      <c r="F25">
+      <c r="F53">
         <v>7.0898950239000003E-2</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="1"/>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f>CONCATENATE(B54,"x AWG ",C54)</f>
         <v>40x AWG 38</v>
       </c>
-      <c r="B26">
+      <c r="B54">
         <v>40</v>
       </c>
-      <c r="C26">
+      <c r="C54">
         <v>38</v>
       </c>
-      <c r="D26">
+      <c r="D54">
         <v>3.2429278656E-7</v>
       </c>
-      <c r="E26">
+      <c r="E54">
         <v>5.5180444473717508E-7</v>
       </c>
-      <c r="F26">
+      <c r="F54">
         <v>5.3182414779000008E-2</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="1"/>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f>CONCATENATE(B55,"x AWG ",C55)</f>
         <v>50x AWG 38</v>
       </c>
-      <c r="B27">
+      <c r="B55">
         <v>50</v>
       </c>
-      <c r="C27">
+      <c r="C55">
         <v>38</v>
       </c>
-      <c r="D27">
+      <c r="D55">
         <v>4.0536598320000001E-7</v>
       </c>
-      <c r="E27">
+      <c r="E55">
         <v>6.9368253888447434E-7</v>
       </c>
-      <c r="F27">
+      <c r="F55">
         <v>4.2519685104000005E-2</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="1"/>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f>CONCATENATE(B56,"x AWG ",C56)</f>
         <v>60x AWG 38</v>
       </c>
-      <c r="B28">
+      <c r="B56">
         <v>60</v>
       </c>
-      <c r="C28">
+      <c r="C56">
         <v>38</v>
       </c>
-      <c r="D28">
+      <c r="D56">
         <v>4.8643917983999997E-7</v>
       </c>
-      <c r="E28">
+      <c r="E56">
         <v>8.1073196655599628E-7</v>
       </c>
-      <c r="F28">
+      <c r="F56">
         <v>3.5433070920000004E-2</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f>CONCATENATE(B57,"x AWG ",C57)</f>
+        <v>1x AWG 39</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>39</v>
+      </c>
+      <c r="D57" s="2">
+        <v>6.3000000000000002E-9</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.0600000000000001E-8</v>
+      </c>
+      <c r="F57">
+        <v>2.7320519999999999</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f>CONCATENATE(B58,"x AWG ",C58)</f>
+        <v>1x AWG 40</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="E58" s="2">
+        <v>8.5999999999999993E-9</v>
+      </c>
+      <c r="F58">
+        <v>3.4242699999999999</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <f>CONCATENATE(B59,"x AWG ",C59)</f>
+        <v>1x AWG 41</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>41</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4.0000000000000002E-9</v>
+      </c>
+      <c r="E59" s="2">
+        <v>6.9999999999999998E-9</v>
+      </c>
+      <c r="F59">
+        <v>4.3123800000000001</v>
+      </c>
+      <c r="G59">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>